--- a/biology/Zoologie/Euphaedra/Euphaedra.xlsx
+++ b/biology/Zoologie/Euphaedra/Euphaedra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphaedra est un genre de lépidoptères (papillons) de la famille des Nymphalidae et de la sous-famille des Limenitidinae.
 </t>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ils résident tous en Afrique[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils résident tous en Afrique.
 </t>
         </is>
       </c>
@@ -542,50 +556,158 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le genre Euphaedra a été décrit par l’entomologiste allemand Jakob Hübner en 1819.
-Synonymie
-Najas Hübner, 1807
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Euphaedra a été décrit par l’entomologiste allemand Jakob Hübner en 1819.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Euphaedra</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphaedra</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Najas Hübner, 1807
 Euphaedrana (Hecq, 1976)
 Gausapia (Hecq, 1976)
 Medoniana (Hecq, 1976)
 Neophronia (Hecq, 1985)
 Proteuphaedra (Hecq, 1976)
 Romaleosoma (Blanchard, 1840)
-Xypetana (Hecq, 1976)
-Noms vernaculaires
-Ils se nomment Foresters ou Fig Eaters en anglais[1].
-Taxinomie
-Espèce type : Papilio cyparissa (Cramer, 1775)</t>
+Xypetana (Hecq, 1976)</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Euphaedra</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Zoologie/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Euphaedra</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ils se nomment Foresters ou Fig Eaters en anglais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Euphaedra</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphaedra</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Espèce type : Papilio cyparissa (Cramer, 1775)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Euphaedra</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphaedra</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Sous-genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe pour ce genre plusieurs sous-genres :
 Euphaedra (Euphaedra)
